--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.957023333333334</v>
+        <v>6.523120333333334</v>
       </c>
       <c r="H2">
-        <v>29.87107</v>
+        <v>19.569361</v>
       </c>
       <c r="I2">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="J2">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.22137533333333</v>
+        <v>26.34406266666667</v>
       </c>
       <c r="N2">
-        <v>63.664126</v>
+        <v>79.032188</v>
       </c>
       <c r="O2">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="P2">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="Q2">
-        <v>211.3017293594245</v>
+        <v>171.8454908435409</v>
       </c>
       <c r="R2">
-        <v>1901.71556423482</v>
+        <v>1546.609417591868</v>
       </c>
       <c r="S2">
-        <v>0.2132318405286047</v>
+        <v>0.2230347288831611</v>
       </c>
       <c r="T2">
-        <v>0.2132318405286047</v>
+        <v>0.2230347288831611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.957023333333334</v>
+        <v>6.523120333333334</v>
       </c>
       <c r="H3">
-        <v>29.87107</v>
+        <v>19.569361</v>
       </c>
       <c r="I3">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="J3">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.036239</v>
       </c>
       <c r="O3">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="P3">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="Q3">
-        <v>0.1202775228588889</v>
+        <v>0.07879711925322223</v>
       </c>
       <c r="R3">
-        <v>1.08249770573</v>
+        <v>0.7091740732790001</v>
       </c>
       <c r="S3">
-        <v>0.0001213761839582327</v>
+        <v>0.0001022691607626613</v>
       </c>
       <c r="T3">
-        <v>0.0001213761839582327</v>
+        <v>0.0001022691607626613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.957023333333334</v>
+        <v>6.523120333333334</v>
       </c>
       <c r="H4">
-        <v>29.87107</v>
+        <v>19.569361</v>
       </c>
       <c r="I4">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="J4">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>170.37447</v>
       </c>
       <c r="O4">
-        <v>0.7278632493749275</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="P4">
-        <v>0.7278632493749274</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="Q4">
-        <v>565.4741910647667</v>
+        <v>370.4577231792967</v>
       </c>
       <c r="R4">
-        <v>5089.267719582901</v>
+        <v>3334.11950861367</v>
       </c>
       <c r="S4">
-        <v>0.5706394495572835</v>
+        <v>0.4808094611408488</v>
       </c>
       <c r="T4">
-        <v>0.5706394495572835</v>
+        <v>0.4808094611408488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.618444</v>
       </c>
       <c r="I5">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363094</v>
       </c>
       <c r="J5">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.22137533333333</v>
+        <v>26.34406266666667</v>
       </c>
       <c r="N5">
-        <v>63.664126</v>
+        <v>79.032188</v>
       </c>
       <c r="O5">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="P5">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="Q5">
-        <v>53.89128652666044</v>
+        <v>66.90025538616356</v>
       </c>
       <c r="R5">
-        <v>485.0215787399441</v>
+        <v>602.102298475472</v>
       </c>
       <c r="S5">
-        <v>0.05438355024055398</v>
+        <v>0.08682846578646819</v>
       </c>
       <c r="T5">
-        <v>0.054383550240554</v>
+        <v>0.08682846578646819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.618444</v>
       </c>
       <c r="I6">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363094</v>
       </c>
       <c r="J6">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363095</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.036239</v>
       </c>
       <c r="O6">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="P6">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="Q6">
         <v>0.03067608801288889</v>
@@ -818,10 +818,10 @@
         <v>0.276084792116</v>
       </c>
       <c r="S6">
-        <v>3.095629518525765E-05</v>
+        <v>3.981386383527457E-05</v>
       </c>
       <c r="T6">
-        <v>3.095629518525765E-05</v>
+        <v>3.981386383527457E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.618444</v>
       </c>
       <c r="I7">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363094</v>
       </c>
       <c r="J7">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>170.37447</v>
       </c>
       <c r="O7">
-        <v>0.7278632493749275</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="P7">
-        <v>0.7278632493749274</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="Q7">
         <v>144.2209287471867</v>
@@ -880,10 +880,10 @@
         <v>1297.98835872468</v>
       </c>
       <c r="S7">
-        <v>0.1455382981139607</v>
+        <v>0.187181377786006</v>
       </c>
       <c r="T7">
-        <v>0.1455382981139607</v>
+        <v>0.187181377786006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.611697</v>
       </c>
       <c r="I8">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="J8">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.22137533333333</v>
+        <v>26.34406266666667</v>
       </c>
       <c r="N8">
-        <v>63.664126</v>
+        <v>79.032188</v>
       </c>
       <c r="O8">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="P8">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="Q8">
-        <v>4.327017209091334</v>
+        <v>5.371528033670668</v>
       </c>
       <c r="R8">
-        <v>38.943154881822</v>
+        <v>48.34375230303601</v>
       </c>
       <c r="S8">
-        <v>0.004366541846536663</v>
+        <v>0.006971595779424937</v>
       </c>
       <c r="T8">
-        <v>0.004366541846536663</v>
+        <v>0.006971595779424937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.611697</v>
       </c>
       <c r="I9">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="J9">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.036239</v>
       </c>
       <c r="O9">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="P9">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="Q9">
         <v>0.002463031953666667</v>
@@ -1004,10 +1004,10 @@
         <v>0.022167287583</v>
       </c>
       <c r="S9">
-        <v>2.485530233724439E-06</v>
+        <v>3.196718524996174E-06</v>
       </c>
       <c r="T9">
-        <v>2.485530233724439E-06</v>
+        <v>3.196718524996174E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.611697</v>
       </c>
       <c r="I10">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="J10">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>170.37447</v>
       </c>
       <c r="O10">
-        <v>0.7278632493749275</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="P10">
-        <v>0.7278632493749274</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="Q10">
         <v>11.57972801951</v>
@@ -1066,10 +1066,10 @@
         <v>104.21755217559</v>
       </c>
       <c r="S10">
-        <v>0.01168550170368325</v>
+        <v>0.01502909088096815</v>
       </c>
       <c r="T10">
-        <v>0.01168550170368325</v>
+        <v>0.01502909088096815</v>
       </c>
     </row>
   </sheetData>
